--- a/DataGenerator/excel/element.xlsx
+++ b/DataGenerator/excel/element.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res/elf/elf_cat.png</t>
-  </si>
-  <si>
-    <t>res/elf/elf_stone.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +140,17 @@
   </si>
   <si>
     <t>quality</t>
+  </si>
+  <si>
+    <t>icon_ele_dark.png</t>
+  </si>
+  <si>
+    <t>icon_ele_dark.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_ele_light.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -234,8 +238,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -247,9 +253,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -571,25 +579,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -603,25 +611,25 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -635,28 +643,28 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -672,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -684,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -692,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -704,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -712,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -736,7 +744,39 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
